--- a/wecando/sql/event.xlsx
+++ b/wecando/sql/event.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohora/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohora/wecando/wecando/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="14900" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -229,8 +232,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -511,12 +515,13 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,10 +531,10 @@
       <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="C1">
-        <v>10000</v>
-      </c>
-      <c r="D1">
+      <c r="C1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="1">
         <v>25</v>
       </c>
     </row>
@@ -540,10 +545,10 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
         <v>25</v>
       </c>
     </row>
@@ -554,10 +559,10 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1">
         <v>25</v>
       </c>
     </row>
@@ -568,10 +573,10 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
         <v>25</v>
       </c>
     </row>
@@ -582,10 +587,10 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
         <v>25</v>
       </c>
     </row>
@@ -596,10 +601,10 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="1">
         <v>25</v>
       </c>
     </row>
@@ -610,10 +615,10 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
         <v>25</v>
       </c>
     </row>
@@ -624,10 +629,10 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
         <v>25</v>
       </c>
     </row>
@@ -638,10 +643,10 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
         <v>25</v>
       </c>
     </row>
@@ -652,10 +657,10 @@
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="1">
         <v>25</v>
       </c>
     </row>
@@ -666,10 +671,10 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1">
         <v>25</v>
       </c>
     </row>
@@ -680,10 +685,10 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="1">
         <v>25</v>
       </c>
     </row>
@@ -694,10 +699,10 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="1">
         <v>25</v>
       </c>
     </row>
@@ -708,10 +713,10 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="1">
         <v>25</v>
       </c>
     </row>
@@ -722,10 +727,10 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1">
         <v>25</v>
       </c>
     </row>
@@ -736,10 +741,10 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
-        <v>10000</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="1">
         <v>25</v>
       </c>
     </row>
@@ -750,10 +755,10 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
-        <v>10000</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="1">
         <v>25</v>
       </c>
     </row>
@@ -764,10 +769,10 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>10000</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1">
         <v>25</v>
       </c>
     </row>
@@ -778,10 +783,10 @@
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>10000</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1">
         <v>25</v>
       </c>
     </row>
@@ -792,10 +797,10 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1">
         <v>25</v>
       </c>
     </row>
@@ -806,10 +811,10 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>10000</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1">
         <v>25</v>
       </c>
     </row>
@@ -820,10 +825,10 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>10000</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
         <v>25</v>
       </c>
     </row>
@@ -834,10 +839,10 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
-        <v>10000</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="1">
         <v>25</v>
       </c>
     </row>
@@ -848,10 +853,10 @@
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24">
-        <v>10000</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="1">
         <v>25</v>
       </c>
     </row>
@@ -862,10 +867,10 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25">
-        <v>10000</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="1">
         <v>25</v>
       </c>
     </row>

--- a/wecando/sql/event.xlsx
+++ b/wecando/sql/event.xlsx
@@ -192,9 +192,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -232,9 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -512,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -521,357 +517,206 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D1" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/wecando/sql/event.xlsx
+++ b/wecando/sql/event.xlsx
@@ -47,9 +47,6 @@
     <t xml:space="preserve">FOOTBALL </t>
   </si>
   <si>
-    <t xml:space="preserve">VOLLEYBAL </t>
-  </si>
-  <si>
     <t>배구</t>
   </si>
   <si>
@@ -185,6 +182,10 @@
   </si>
   <si>
     <t>양궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLLEYBALL </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +512,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -521,42 +522,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,95 +565,95 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,18 +666,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,26 +698,26 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
